--- a/FSIAP/grupoTop.2NA.xlsx
+++ b/FSIAP/grupoTop.2NA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagomoura/Documents/Dump.2ano/FSIAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D56BCE-9BFD-384A-91A4-FD6DAC0C95FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304BE7B7-CCFB-754A-AA29-C9368FC2D4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{D6DEECEA-9444-3649-8C51-C40CFAE54B32}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" activeTab="1" xr2:uid="{D6DEECEA-9444-3649-8C51-C40CFAE54B32}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1444,6 +1444,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:legendEntry>
         <c:idx val="6"/>
         <c:delete val="1"/>
@@ -4658,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E472567-AC3B-B448-9133-0629FA3E017F}">
   <dimension ref="A2:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
